--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61072.68991272342</v>
+        <v>4443787.454685159</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61072.68991272342</v>
+        <v>4443787.454685159</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609238214.062521</v>
+        <v>61487536.21139601</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14255.09374443961</v>
+        <v>1356321.406037829</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28313.85227787251</v>
+        <v>2678667.298387053</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42372.6108113054</v>
+        <v>4001013.190736279</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59231.16806242739</v>
+        <v>5104008.953991303</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74770.8611372618</v>
+        <v>6345742.15720959</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90310.55421209622</v>
+        <v>7587475.360427872</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105850.2472869307</v>
+        <v>8829208.563646153</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121389.9403617652</v>
+        <v>10070941.76686443</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138248.4976128871</v>
+        <v>11173937.53011945</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153788.1906877216</v>
+        <v>12415670.73333773</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169327.8837625562</v>
+        <v>13657403.93655601</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184867.5768373907</v>
+        <v>14899137.13977429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200407.2699122252</v>
+        <v>16140870.34299259</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216717.1847156809</v>
+        <v>17299368.97939803</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236710.1105752463</v>
+        <v>18002773.16795919</v>
       </c>
     </row>
   </sheetData>
